--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -29,147 +29,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/model/up_raw_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/deviceinfo/delete_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/cipher/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/topo/add_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/config/log/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/gateway/permit</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/_thing/service/post_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/lan/blacklist/update_reply</t>
-  </si>
-  <si>
-    <t>/shadow/get/a1bw1zXB8k4/Mi206</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/job/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/reset_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/topo/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/service/property/get</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/rrpc/request/+</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/disable_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/dsltemplate/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/job/update_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/lan/prefix/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/config/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/job/notify</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/config/push</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/config/log/push</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/bootstrap/config/push</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/reset</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/sub/register_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/property/desired/delete_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/service/+</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/model/down_raw</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/awss/enrollee/found_reply</t>
-  </si>
-  <si>
-    <t>/ota/device/upgrade/a1bw1zXB8k4/Mi206</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/topo/delete_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/deviceinfo/update_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/property/desired/get_reply</t>
-  </si>
-  <si>
-    <t>/ota/device/request/a1bw1zXB8k4/Mi206</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/event/property/history/post_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/proxy/provisioning/product_register_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/dynamicTsl/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/sub/unregister_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/awss/enrollee/checkin</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/bootstrap/notify</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/service/property/set</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/topo/change</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/awss/enrollee/match_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/awss/device/switchap</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/ota/firmware/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/lan/prefix/update</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi206/thing/event/+/post_reply</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/config/log/get_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/property/desired/delete_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/awss/enrollee/found_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/topo/add_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/topo/get_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/dynamicTsl/get_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/reset_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/job/notify</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/event/property/history/post_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/service/+</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/service/property/get</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/_thing/service/post_reply</t>
+  </si>
+  <si>
+    <t>/ota/device/upgrade/a1bw1zXB8k4/Mi96</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/ota/firmware/get_reply</t>
+  </si>
+  <si>
+    <t>/ota/device/request/a1bw1zXB8k4/Mi96</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/awss/enrollee/match_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/awss/device/switchap</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/lan/prefix/get_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/dsltemplate/get_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/topo/change</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/awss/enrollee/checkin</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/deviceinfo/delete_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/service/property/set</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/deviceinfo/update_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/topo/delete_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/cipher/get_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/model/up_raw_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/disable_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/job/get_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/rrpc/request/+</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/config/log/push</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/lan/prefix/update</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/job/update_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/property/desired/get_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/config/get_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/bootstrap/notify</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/proxy/provisioning/product_register_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/lan/blacklist/update_reply</t>
+  </si>
+  <si>
+    <t>/shadow/get/a1bw1zXB8k4/Mi96</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/sub/register_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/model/down_raw</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/event/+/post_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/sub/unregister_reply</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/bootstrap/config/push</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/gateway/permit</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/reset</t>
+  </si>
+  <si>
+    <t>/sys/a1bw1zXB8k4/Mi96/thing/config/push</t>
   </si>
 </sst>
 </file>
@@ -812,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,6 +836,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1148,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1166,7 +1181,7 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:2">
+    <row r="2" ht="16.5" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1178,7 +1193,7 @@
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:2">
+    <row r="4" ht="16.5" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1205,7 @@
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:2">
+    <row r="6" ht="16.5" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1202,7 +1217,7 @@
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="1:2">
+    <row r="8" ht="16.5" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1229,7 @@
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:2">
+    <row r="10" ht="16.5" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1226,7 +1241,7 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:2">
+    <row r="12" ht="16.5" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1238,7 +1253,7 @@
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:2">
+    <row r="14" ht="16.5" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1250,7 +1265,7 @@
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:2">
+    <row r="16" ht="16.5" customHeight="1" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1262,7 +1277,7 @@
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:2">
+    <row r="18" ht="16.5" customHeight="1" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1274,7 +1289,7 @@
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:2">
+    <row r="20" ht="16.5" customHeight="1" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1286,7 +1301,7 @@
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:2">
+    <row r="22" ht="15.75" customHeight="1" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1298,7 +1313,7 @@
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:2">
+    <row r="24" ht="15.75" customHeight="1" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +1325,7 @@
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:2">
+    <row r="26" ht="15.75" customHeight="1" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
@@ -1322,7 +1337,7 @@
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:2">
+    <row r="28" ht="15.75" customHeight="1" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -1334,7 +1349,7 @@
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:2">
+    <row r="30" ht="15.75" customHeight="1" spans="1:2">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1361,7 @@
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:2">
+    <row r="32" ht="15.75" customHeight="1" spans="1:2">
       <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1358,7 +1373,7 @@
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:2">
+    <row r="34" ht="15.75" customHeight="1" spans="1:2">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1370,7 +1385,7 @@
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:2">
+    <row r="36" ht="15.75" customHeight="1" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>18</v>
       </c>
@@ -1382,7 +1397,7 @@
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:2">
+    <row r="38" ht="15.75" customHeight="1" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
@@ -1394,7 +1409,7 @@
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" ht="15" customHeight="1" spans="1:2">
+    <row r="40" ht="15.75" customHeight="1" spans="1:2">
       <c r="A40" s="3" t="s">
         <v>20</v>
       </c>
@@ -1406,7 +1421,7 @@
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" ht="15" customHeight="1" spans="1:2">
+    <row r="42" ht="15.75" customHeight="1" spans="1:2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -1418,7 +1433,7 @@
       </c>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" ht="15" customHeight="1" spans="1:2">
+    <row r="44" ht="15.75" customHeight="1" spans="1:2">
       <c r="A44" s="3" t="s">
         <v>22</v>
       </c>
@@ -1430,7 +1445,7 @@
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" ht="15" customHeight="1" spans="1:2">
+    <row r="46" ht="15.75" customHeight="1" spans="1:2">
       <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
@@ -1442,7 +1457,7 @@
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" ht="15" customHeight="1" spans="1:2">
+    <row r="48" ht="15.75" customHeight="1" spans="1:2">
       <c r="A48" s="3" t="s">
         <v>24</v>
       </c>
@@ -1454,7 +1469,7 @@
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" ht="15" customHeight="1" spans="1:2">
+    <row r="50" ht="15.75" customHeight="1" spans="1:2">
       <c r="A50" s="3" t="s">
         <v>25</v>
       </c>
@@ -1466,7 +1481,7 @@
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" ht="15" customHeight="1" spans="1:2">
+    <row r="52" ht="15.75" customHeight="1" spans="1:2">
       <c r="A52" s="3" t="s">
         <v>26</v>
       </c>
@@ -1478,7 +1493,7 @@
       </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" ht="15" customHeight="1" spans="1:2">
+    <row r="54" ht="15.75" customHeight="1" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>27</v>
       </c>
@@ -1490,7 +1505,7 @@
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" ht="15" customHeight="1" spans="1:2">
+    <row r="56" ht="15.75" customHeight="1" spans="1:2">
       <c r="A56" s="3" t="s">
         <v>28</v>
       </c>
@@ -1502,7 +1517,7 @@
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" ht="15" customHeight="1" spans="1:2">
+    <row r="58" ht="15.75" customHeight="1" spans="1:2">
       <c r="A58" s="3" t="s">
         <v>29</v>
       </c>
@@ -1514,7 +1529,7 @@
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" ht="15" customHeight="1" spans="1:2">
+    <row r="60" ht="15.75" customHeight="1" spans="1:2">
       <c r="A60" s="3" t="s">
         <v>30</v>
       </c>
@@ -1526,7 +1541,7 @@
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" ht="15" customHeight="1" spans="1:2">
+    <row r="62" ht="15.75" customHeight="1" spans="1:2">
       <c r="A62" s="3" t="s">
         <v>31</v>
       </c>
@@ -1538,7 +1553,7 @@
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" ht="15" customHeight="1" spans="1:2">
+    <row r="64" ht="15.75" customHeight="1" spans="1:2">
       <c r="A64" s="3" t="s">
         <v>32</v>
       </c>
@@ -1550,7 +1565,7 @@
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" ht="15" customHeight="1" spans="1:2">
+    <row r="66" ht="15.75" customHeight="1" spans="1:2">
       <c r="A66" s="3" t="s">
         <v>33</v>
       </c>
@@ -1562,7 +1577,7 @@
       </c>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" ht="15" customHeight="1" spans="1:2">
+    <row r="68" ht="15.75" customHeight="1" spans="1:2">
       <c r="A68" s="3" t="s">
         <v>34</v>
       </c>
@@ -1574,7 +1589,7 @@
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" ht="15" customHeight="1" spans="1:2">
+    <row r="70" ht="15.75" customHeight="1" spans="1:2">
       <c r="A70" s="3" t="s">
         <v>35</v>
       </c>
@@ -1586,7 +1601,7 @@
       </c>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" ht="15" customHeight="1" spans="1:2">
+    <row r="72" ht="15.75" customHeight="1" spans="1:2">
       <c r="A72" s="3" t="s">
         <v>36</v>
       </c>
@@ -1598,7 +1613,7 @@
       </c>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" ht="15" customHeight="1" spans="1:2">
+    <row r="74" ht="15.75" customHeight="1" spans="1:2">
       <c r="A74" s="3" t="s">
         <v>37</v>
       </c>
@@ -1610,7 +1625,7 @@
       </c>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" ht="15" customHeight="1" spans="1:2">
+    <row r="76" ht="15.75" customHeight="1" spans="1:2">
       <c r="A76" s="3" t="s">
         <v>38</v>
       </c>
@@ -1622,7 +1637,7 @@
       </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" ht="15" customHeight="1" spans="1:2">
+    <row r="78" ht="15.75" customHeight="1" spans="1:2">
       <c r="A78" s="3" t="s">
         <v>39</v>
       </c>
@@ -1634,7 +1649,7 @@
       </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" ht="15" customHeight="1" spans="1:2">
+    <row r="80" ht="15.75" customHeight="1" spans="1:2">
       <c r="A80" s="3" t="s">
         <v>40</v>
       </c>
@@ -1646,7 +1661,7 @@
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" ht="15" customHeight="1" spans="1:2">
+    <row r="82" ht="15.75" customHeight="1" spans="1:2">
       <c r="A82" s="3" t="s">
         <v>41</v>
       </c>
@@ -1658,7 +1673,7 @@
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" ht="15" customHeight="1" spans="1:2">
+    <row r="84" ht="15.75" customHeight="1" spans="1:2">
       <c r="A84" s="3" t="s">
         <v>42</v>
       </c>
@@ -1670,19 +1685,19 @@
       </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" ht="15" customHeight="1" spans="1:2">
-      <c r="A86" s="3" t="s">
+    <row r="86" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A86" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B86" s="2"/>
+      <c r="B86" s="5"/>
     </row>
     <row r="87" ht="14.25" spans="1:2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" ht="15" customHeight="1" spans="1:2">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1" spans="1:2">
       <c r="A88" s="3" t="s">
         <v>44</v>
       </c>
@@ -1694,17 +1709,17 @@
       </c>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" ht="15" customHeight="1" spans="1:2">
-      <c r="A90" s="4" t="s">
+    <row r="90" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A90" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B90" s="5"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" ht="14.25" spans="1:2">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B91" s="5"/>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="3" t="s">
@@ -1718,8 +1733,146 @@
       </c>
       <c r="B93" s="7"/>
     </row>
+    <row r="94" ht="14.25" spans="1:2">
+      <c r="A94" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" ht="14.25" spans="1:2">
+      <c r="A95" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" s="9"/>
+    </row>
+    <row r="96" ht="14.25" spans="1:2">
+      <c r="A96" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97" ht="14.25" spans="1:2">
+      <c r="A97" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98" ht="14.25" spans="1:2">
+      <c r="A98" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" s="9"/>
+    </row>
+    <row r="99" ht="14.25" spans="1:2">
+      <c r="A99" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="9"/>
+    </row>
+    <row r="100" ht="14.25" spans="1:2">
+      <c r="A100" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" s="9"/>
+    </row>
+    <row r="101" ht="14.25" spans="1:2">
+      <c r="A101" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" ht="14.25" spans="1:2">
+      <c r="A102" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="9"/>
+    </row>
+    <row r="103" ht="14.25" spans="1:2">
+      <c r="A103" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" s="9"/>
+    </row>
+    <row r="104" ht="14.25" spans="1:2">
+      <c r="A104" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="9"/>
+    </row>
+    <row r="105" ht="14.25" spans="1:2">
+      <c r="A105" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" s="9"/>
+    </row>
+    <row r="106" ht="14.25" spans="1:2">
+      <c r="A106" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="9"/>
+    </row>
+    <row r="107" ht="14.25" spans="1:2">
+      <c r="A107" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" s="9"/>
+    </row>
+    <row r="108" ht="14.25" spans="1:2">
+      <c r="A108" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" ht="14.25" spans="1:2">
+      <c r="A109" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="9"/>
+    </row>
+    <row r="110" ht="14.25" spans="1:2">
+      <c r="A110" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="9"/>
+    </row>
+    <row r="111" ht="14.25" spans="1:2">
+      <c r="A111" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" s="9"/>
+    </row>
+    <row r="112" ht="14.25" spans="1:2">
+      <c r="A112" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="9"/>
+    </row>
+    <row r="113" ht="14.25" spans="1:2">
+      <c r="A113" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B113" s="9"/>
+    </row>
+    <row r="114" ht="14.25" spans="1:2">
+      <c r="A114" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B114" s="9"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" s="7"/>
+    </row>
+    <row r="116" ht="14.25" spans="1:2">
+      <c r="A116" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B116" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="55">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
@@ -1765,6 +1918,16 @@
     <mergeCell ref="B86:B87"/>
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/新建 XLSX 工作表.xlsx
+++ b/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,147 +29,523 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/config/log/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/property/desired/delete_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/awss/enrollee/found_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/topo/add_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/topo/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/dynamicTsl/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/reset_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/job/notify</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/event/property/history/post_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/service/+</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/service/property/get</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/_thing/service/post_reply</t>
-  </si>
-  <si>
-    <t>/ota/device/upgrade/a1bw1zXB8k4/Mi96</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/ota/firmware/get_reply</t>
-  </si>
-  <si>
-    <t>/ota/device/request/a1bw1zXB8k4/Mi96</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/awss/enrollee/match_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/awss/device/switchap</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/lan/prefix/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/dsltemplate/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/topo/change</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/awss/enrollee/checkin</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/deviceinfo/delete_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/service/property/set</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/deviceinfo/update_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/topo/delete_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/cipher/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/model/up_raw_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/disable_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/job/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/rrpc/request/+</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/config/log/push</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/lan/prefix/update</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/job/update_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/property/desired/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/config/get_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/bootstrap/notify</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/proxy/provisioning/product_register_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/lan/blacklist/update_reply</t>
-  </si>
-  <si>
-    <t>/shadow/get/a1bw1zXB8k4/Mi96</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/sub/register_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/model/down_raw</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/event/+/post_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/sub/unregister_reply</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/bootstrap/config/push</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/gateway/permit</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/reset</t>
-  </si>
-  <si>
-    <t>/sys/a1bw1zXB8k4/Mi96/thing/config/push</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/ota/device/request/a1bw1zXB8k4/Mi207</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/dsltemplate/get_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/job/update_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/service/property/get</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/model/down_raw</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/_thing/service/post_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/config/push</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/deviceinfo/update_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/bootstrap/notify</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/ota/device/upgrade/a1bw1zXB8k4/Mi207</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/topo/change</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/proxy/provisioning/product_register_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/property/desired/delete_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/bootstrap/config/push</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/awss/enrollee/match_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/reset_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/topo/add_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/cipher/get_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/reset</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/gateway/permit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/sub/register_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/service/+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/lan/prefix/get_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/deviceinfo/delete_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/topo/get_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/dynamicTsl/get_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/config/log/get_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/service/property/set</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/model/up_raw_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/ota/firmware/get_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/shadow/get/a1bw1zXB8k4/Mi207</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/awss/enrollee/checkin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/rrpc/request/+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/lan/prefix/update</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/topo/delete_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/job/get_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/disable_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/awss/enrollee/found_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/property/desired/get_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/event/property/history/post_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/event/+/post_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/config/get_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/lan/blacklist/update_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/sub/unregister_reply</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/config/log/push</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/job/notify</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/sys/a1bw1zXB8k4/Mi207/thing/awss/device/switchap</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -812,7 +1188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,14 +1204,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1165,8 +1538,8 @@
   <sheetPr/>
   <dimension ref="A1:B116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1181,7 +1554,7 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" ht="16.5" customHeight="1" spans="1:2">
+    <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1566,7 @@
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1" spans="1:2">
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1205,7 +1578,7 @@
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" ht="16.5" customHeight="1" spans="1:2">
+    <row r="6" ht="17.25" customHeight="1" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1217,7 +1590,7 @@
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1" spans="1:2">
+    <row r="8" ht="17.25" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1602,7 @@
       </c>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" ht="16.5" customHeight="1" spans="1:2">
+    <row r="10" ht="17.25" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1241,7 +1614,7 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" ht="16.5" customHeight="1" spans="1:2">
+    <row r="12" ht="17.25" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +1626,7 @@
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" ht="16.5" customHeight="1" spans="1:2">
+    <row r="14" ht="17.25" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1265,7 +1638,7 @@
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" ht="16.5" customHeight="1" spans="1:2">
+    <row r="16" ht="17.25" customHeight="1" spans="1:2">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1277,7 +1650,7 @@
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" ht="16.5" customHeight="1" spans="1:2">
+    <row r="18" ht="17.25" customHeight="1" spans="1:2">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1662,7 @@
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" ht="16.5" customHeight="1" spans="1:2">
+    <row r="20" ht="17.25" customHeight="1" spans="1:2">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1301,7 +1674,7 @@
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:2">
+    <row r="22" ht="16.5" customHeight="1" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1313,7 +1686,7 @@
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1" spans="1:2">
+    <row r="24" ht="16.5" customHeight="1" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -1325,7 +1698,7 @@
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1" spans="1:2">
+    <row r="26" ht="16.5" customHeight="1" spans="1:2">
       <c r="A26" s="3" t="s">
         <v>13</v>
       </c>
@@ -1337,7 +1710,7 @@
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1" spans="1:2">
+    <row r="28" ht="16.5" customHeight="1" spans="1:2">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -1349,7 +1722,7 @@
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1" spans="1:2">
+    <row r="30" ht="16.5" customHeight="1" spans="1:2">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -1361,7 +1734,7 @@
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1" spans="1:2">
+    <row r="32" ht="16.5" customHeight="1" spans="1:2">
       <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
@@ -1373,7 +1746,7 @@
       </c>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1" spans="1:2">
+    <row r="34" ht="16.5" customHeight="1" spans="1:2">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
@@ -1385,7 +1758,7 @@
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1" spans="1:2">
+    <row r="36" ht="16.5" customHeight="1" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>18</v>
       </c>
@@ -1397,7 +1770,7 @@
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1" spans="1:2">
+    <row r="38" ht="16.5" customHeight="1" spans="1:2">
       <c r="A38" s="3" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1782,7 @@
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1" spans="1:2">
+    <row r="40" ht="16.5" customHeight="1" spans="1:2">
       <c r="A40" s="3" t="s">
         <v>20</v>
       </c>
@@ -1421,7 +1794,7 @@
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1" spans="1:2">
+    <row r="42" ht="16.5" customHeight="1" spans="1:2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -1433,7 +1806,7 @@
       </c>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1" spans="1:2">
+    <row r="44" ht="16.5" customHeight="1" spans="1:2">
       <c r="A44" s="3" t="s">
         <v>22</v>
       </c>
@@ -1445,7 +1818,7 @@
       </c>
       <c r="B45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1" spans="1:2">
+    <row r="46" ht="16.5" customHeight="1" spans="1:2">
       <c r="A46" s="3" t="s">
         <v>23</v>
       </c>
@@ -1457,7 +1830,7 @@
       </c>
       <c r="B47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1" spans="1:2">
+    <row r="48" ht="16.5" customHeight="1" spans="1:2">
       <c r="A48" s="3" t="s">
         <v>24</v>
       </c>
@@ -1469,7 +1842,7 @@
       </c>
       <c r="B49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1" spans="1:2">
+    <row r="50" ht="16.5" customHeight="1" spans="1:2">
       <c r="A50" s="3" t="s">
         <v>25</v>
       </c>
@@ -1481,7 +1854,7 @@
       </c>
       <c r="B51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1" spans="1:2">
+    <row r="52" ht="16.5" customHeight="1" spans="1:2">
       <c r="A52" s="3" t="s">
         <v>26</v>
       </c>
@@ -1493,7 +1866,7 @@
       </c>
       <c r="B53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1" spans="1:2">
+    <row r="54" ht="16.5" customHeight="1" spans="1:2">
       <c r="A54" s="3" t="s">
         <v>27</v>
       </c>
@@ -1505,7 +1878,7 @@
       </c>
       <c r="B55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1" spans="1:2">
+    <row r="56" ht="16.5" customHeight="1" spans="1:2">
       <c r="A56" s="3" t="s">
         <v>28</v>
       </c>
@@ -1517,7 +1890,7 @@
       </c>
       <c r="B57" s="2"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1" spans="1:2">
+    <row r="58" ht="16.5" customHeight="1" spans="1:2">
       <c r="A58" s="3" t="s">
         <v>29</v>
       </c>
@@ -1529,7 +1902,7 @@
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1" spans="1:2">
+    <row r="60" ht="16.5" customHeight="1" spans="1:2">
       <c r="A60" s="3" t="s">
         <v>30</v>
       </c>
@@ -1541,7 +1914,7 @@
       </c>
       <c r="B61" s="2"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1" spans="1:2">
+    <row r="62" ht="16.5" customHeight="1" spans="1:2">
       <c r="A62" s="3" t="s">
         <v>31</v>
       </c>
@@ -1553,7 +1926,7 @@
       </c>
       <c r="B63" s="2"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1" spans="1:2">
+    <row r="64" ht="16.5" customHeight="1" spans="1:2">
       <c r="A64" s="3" t="s">
         <v>32</v>
       </c>
@@ -1565,7 +1938,7 @@
       </c>
       <c r="B65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1" spans="1:2">
+    <row r="66" ht="16.5" customHeight="1" spans="1:2">
       <c r="A66" s="3" t="s">
         <v>33</v>
       </c>
@@ -1577,7 +1950,7 @@
       </c>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1" spans="1:2">
+    <row r="68" ht="16.5" customHeight="1" spans="1:2">
       <c r="A68" s="3" t="s">
         <v>34</v>
       </c>
@@ -1589,7 +1962,7 @@
       </c>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1" spans="1:2">
+    <row r="70" ht="16.5" customHeight="1" spans="1:2">
       <c r="A70" s="3" t="s">
         <v>35</v>
       </c>
@@ -1601,7 +1974,7 @@
       </c>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1" spans="1:2">
+    <row r="72" ht="16.5" customHeight="1" spans="1:2">
       <c r="A72" s="3" t="s">
         <v>36</v>
       </c>
@@ -1613,7 +1986,7 @@
       </c>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1" spans="1:2">
+    <row r="74" ht="16.5" customHeight="1" spans="1:2">
       <c r="A74" s="3" t="s">
         <v>37</v>
       </c>
@@ -1625,7 +1998,7 @@
       </c>
       <c r="B75" s="2"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1" spans="1:2">
+    <row r="76" ht="16.5" customHeight="1" spans="1:2">
       <c r="A76" s="3" t="s">
         <v>38</v>
       </c>
@@ -1637,7 +2010,7 @@
       </c>
       <c r="B77" s="2"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1" spans="1:2">
+    <row r="78" ht="16.5" customHeight="1" spans="1:2">
       <c r="A78" s="3" t="s">
         <v>39</v>
       </c>
@@ -1649,7 +2022,7 @@
       </c>
       <c r="B79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1" spans="1:2">
+    <row r="80" ht="16.5" customHeight="1" spans="1:2">
       <c r="A80" s="3" t="s">
         <v>40</v>
       </c>
@@ -1661,7 +2034,7 @@
       </c>
       <c r="B81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1" spans="1:2">
+    <row r="82" ht="16.5" customHeight="1" spans="1:2">
       <c r="A82" s="3" t="s">
         <v>41</v>
       </c>
@@ -1673,7 +2046,7 @@
       </c>
       <c r="B83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1" spans="1:2">
+    <row r="84" ht="16.5" customHeight="1" spans="1:2">
       <c r="A84" s="3" t="s">
         <v>42</v>
       </c>
@@ -1685,19 +2058,19 @@
       </c>
       <c r="B85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A86" s="4" t="s">
+    <row r="86" ht="16.5" customHeight="1" spans="1:2">
+      <c r="A86" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B86" s="5"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" ht="14.25" spans="1:2">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B87" s="5"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1" spans="1:2">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1" spans="1:2">
       <c r="A88" s="3" t="s">
         <v>44</v>
       </c>
@@ -1709,7 +2082,7 @@
       </c>
       <c r="B89" s="2"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1" spans="1:2">
+    <row r="90" ht="16.5" customHeight="1" spans="1:2">
       <c r="A90" s="3" t="s">
         <v>45</v>
       </c>
@@ -1722,154 +2095,108 @@
       <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B92" s="7"/>
+      <c r="B92" s="5"/>
     </row>
     <row r="93" ht="14.25" spans="1:2">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B93" s="7"/>
+      <c r="B93" s="5"/>
     </row>
     <row r="94" ht="14.25" spans="1:2">
-      <c r="A94" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" s="9"/>
-    </row>
-    <row r="95" ht="14.25" spans="1:2">
-      <c r="A95" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B95" s="9"/>
-    </row>
-    <row r="96" ht="14.25" spans="1:2">
-      <c r="A96" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" s="9"/>
-    </row>
-    <row r="97" ht="14.25" spans="1:2">
-      <c r="A97" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B97" s="9"/>
-    </row>
-    <row r="98" ht="14.25" spans="1:2">
-      <c r="A98" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B98" s="9"/>
-    </row>
-    <row r="99" ht="14.25" spans="1:2">
-      <c r="A99" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B99" s="9"/>
-    </row>
-    <row r="100" ht="14.25" spans="1:2">
-      <c r="A100" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B100" s="9"/>
-    </row>
-    <row r="101" ht="14.25" spans="1:2">
-      <c r="A101" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B101" s="9"/>
-    </row>
-    <row r="102" ht="14.25" spans="1:2">
-      <c r="A102" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B102" s="9"/>
-    </row>
-    <row r="103" ht="14.25" spans="1:2">
-      <c r="A103" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="9"/>
-    </row>
-    <row r="104" ht="14.25" spans="1:2">
-      <c r="A104" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B104" s="9"/>
-    </row>
-    <row r="105" ht="14.25" spans="1:2">
-      <c r="A105" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B105" s="9"/>
-    </row>
-    <row r="106" ht="14.25" spans="1:2">
-      <c r="A106" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B106" s="9"/>
-    </row>
-    <row r="107" ht="14.25" spans="1:2">
-      <c r="A107" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B107" s="9"/>
-    </row>
-    <row r="108" ht="14.25" spans="1:2">
-      <c r="A108" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B108" s="9"/>
-    </row>
-    <row r="109" ht="14.25" spans="1:2">
-      <c r="A109" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B109" s="9"/>
-    </row>
-    <row r="110" ht="14.25" spans="1:2">
-      <c r="A110" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" s="9"/>
-    </row>
-    <row r="111" ht="14.25" spans="1:2">
-      <c r="A111" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B111" s="9"/>
-    </row>
-    <row r="112" ht="14.25" spans="1:2">
-      <c r="A112" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B112" s="9"/>
-    </row>
-    <row r="113" ht="14.25" spans="1:2">
-      <c r="A113" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B113" s="9"/>
-    </row>
-    <row r="114" ht="14.25" spans="1:2">
-      <c r="A114" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B114" s="9"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="8"/>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="9"/>
+      <c r="B95" s="8"/>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="7"/>
+      <c r="B96" s="8"/>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="9"/>
+      <c r="B97" s="8"/>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="7"/>
+      <c r="B98" s="8"/>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="9"/>
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="9"/>
+      <c r="B101" s="8"/>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="7"/>
+      <c r="B102" s="8"/>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9"/>
+      <c r="B103" s="8"/>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="7"/>
+      <c r="B104" s="8"/>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9"/>
+      <c r="B105" s="8"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="7"/>
+      <c r="B106" s="8"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9"/>
+      <c r="B107" s="8"/>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="7"/>
+      <c r="B108" s="8"/>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9"/>
+      <c r="B109" s="8"/>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="7"/>
+      <c r="B110" s="8"/>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9"/>
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="7"/>
+      <c r="B112" s="8"/>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="9"/>
+      <c r="B113" s="8"/>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="7"/>
+      <c r="B114" s="8"/>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B115" s="7"/>
-    </row>
-    <row r="116" ht="14.25" spans="1:2">
-      <c r="A116" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B116" s="7"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="11"/>
+      <c r="B116" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="55">
